--- a/new Writing Analysis.xlsx
+++ b/new Writing Analysis.xlsx
@@ -10,12 +10,12 @@
     <sheet name="1A 1B 2019" sheetId="1" r:id="rId1"/>
     <sheet name="1A 1B 2018" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="251">
   <si>
     <t>Binu Abeysinghe</t>
   </si>
@@ -756,12 +756,24 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Maximum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,36 +1023,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1111,6 +1093,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1137,350 +1155,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'1A 1B 2019'!$B$90:$I$90</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3698630136986301E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.4794520547945202E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15068493150684931</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.41095890410958902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27397260273972601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.7397260273972601E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.8493150684931503E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'1A 1B 2019'!$B$91:$I$91</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27777777777777779</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.22222222222222221</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18518518518518517</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="223122800"/>
-        <c:axId val="223139280"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="223122800"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="223139280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="223139280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="223122800"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1500,7 +1175,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1533,7 +1208,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1571,7 +1246,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1A 1B 2019'!$B$88:$I$88</c:f>
+              <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1603,9 +1278,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1A 1B 2019'!$B$89:$I$89</c:f>
+              <c:f>'1A 1B 2019'!$B$93:$I$93</c:f>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F021-4936-98AE-94D96A971841}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1622,7 +1302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1A 1B 2019'!$B$88:$I$88</c:f>
+              <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1654,7 +1334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1A 1B 2019'!$B$90:$I$90</c:f>
+              <c:f>'1A 1B 2019'!$B$94:$I$94</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1662,29 +1342,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3698630136986301E-2</c:v>
+                  <c:v>3.896103896103896E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4794520547945202E-2</c:v>
+                  <c:v>0.14285714285714285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15068493150684931</c:v>
+                  <c:v>0.41558441558441561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41095890410958902</c:v>
+                  <c:v>0.27272727272727271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27397260273972601</c:v>
+                  <c:v>0.12987012987012986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7397260273972601E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.8493150684931503E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F021-4936-98AE-94D96A971841}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1728,7 +1413,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1787,7 +1472,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1838,7 +1523,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" b="1"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1851,8 +1536,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1877,7 +1562,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1A 1B 2019'!$W$88</c:f>
+              <c:f>'1A 1B 2019'!$W$92</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1911,6 +1596,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BADF-40B9-AB71-1B48CCAD7AE6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1928,6 +1618,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BADF-40B9-AB71-1B48CCAD7AE6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1944,6 +1639,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BADF-40B9-AB71-1B48CCAD7AE6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1958,6 +1658,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BADF-40B9-AB71-1B48CCAD7AE6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1972,10 +1677,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-BADF-40B9-AB71-1B48CCAD7AE6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'1A 1B 2019'!$X$87:$AD$87</c:f>
+              <c:f>'1A 1B 2019'!$X$89:$AD$89</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -2004,7 +1714,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1A 1B 2019'!$X$88:$AD$88</c:f>
+              <c:f>'1A 1B 2019'!$X$92:$AD$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2032,6 +1742,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BADF-40B9-AB71-1B48CCAD7AE6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2303,8 +2018,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2395,7 +2110,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1A 1B 2019'!$X$91:$AC$91</c:f>
+              <c:f>'1A 1B 2019'!$X$95:$AC$95</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -2421,7 +2136,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1A 1B 2019'!$X$92:$AC$92</c:f>
+              <c:f>'1A 1B 2019'!$X$96:$AC$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2446,6 +2161,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56F8-4896-9CAF-9B4B5E7B7631}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2612,8 +2332,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2716,26 +2436,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$2:$B$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13.674936708860759</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2764,26 +2476,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$C$2:$C$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.985569620253168</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2812,26 +2516,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$D$2:$D$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>12.244303797468358</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2860,26 +2556,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$E$2:$E$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.650506329113924</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2908,26 +2596,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$F$2:$F$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11.955696202531646</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2956,26 +2636,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$G$2:$G$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11.894683544303799</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3006,26 +2678,18 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Score</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$H$2:$H$84</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>11.912531645569624</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A8A2-4FAA-B0EF-D7D401550877}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3212,6 +2876,845 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gunning fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$B$2:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7169-465F-B3CF-31264AA78E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flesch-Kincaid</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$C$2:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7169-465F-B3CF-31264AA78E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SMOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$D$2:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>16.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7169-465F-B3CF-31264AA78E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coleman-Liau</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$E$2:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7169-465F-B3CF-31264AA78E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Automated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Maximum</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Minimum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$F$2:$F$89</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7169-465F-B3CF-31264AA78E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2080777088"/>
+        <c:axId val="2080781664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080777088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080781664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080781664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2080777088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400" b="1"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$B$93:$I$93</c:f>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65A5-496A-9D3C-DE253863A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17-18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19-20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1A 1B 2019'!$B$94:$I$94</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.896103896103896E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41558441558441561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12987012987012986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65A5-496A-9D3C-DE253863A771}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2050488528"/>
+        <c:axId val="2050476880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2050488528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050476880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2050476880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2050488528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3424,6 +3927,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5939,24 +6482,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16809</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>169209</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>21291</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>263338</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5973,20 +7019,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>16809</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>169209</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>577101</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>263338</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>54909</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>183778</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6003,20 +7049,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>577101</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>184897</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>174811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>183778</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6033,20 +7079,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>184897</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>174811</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>846044</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>112065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6063,20 +7109,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>442632</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>997323</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>22418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>549088</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6086,6 +7132,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>45943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>851646</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6381,11 +7457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AE96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6406,12 +7482,12 @@
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="22" width="9.140625" customWidth="1"/>
     <col min="23" max="23" width="48.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="36" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" style="36" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" style="36" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="36"/>
-    <col min="29" max="29" width="11.28515625" style="36" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="36"/>
+    <col min="24" max="24" width="14.28515625" style="24" customWidth="1"/>
+    <col min="25" max="25" width="10.85546875" style="24" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" style="24" customWidth="1"/>
+    <col min="27" max="28" width="9.140625" style="24"/>
+    <col min="29" max="29" width="11.28515625" style="24" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="24"/>
     <col min="31" max="31" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -6483,25 +7559,25 @@
         <v>88</v>
       </c>
       <c r="W1" s="4"/>
-      <c r="X1" s="30" t="s">
+      <c r="X1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AA1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AC1" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="AD1" s="40" t="s">
+      <c r="AD1" s="28" t="s">
         <v>179</v>
       </c>
     </row>
@@ -6582,17 +7658,17 @@
       <c r="W2" t="s">
         <v>173</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="16">
         <v>0.82</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
       <c r="AE2" s="6">
         <v>2</v>
       </c>
@@ -6674,19 +7750,19 @@
       <c r="W3" t="s">
         <v>172</v>
       </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36">
         <v>0.91</v>
       </c>
-      <c r="Z3" s="48">
+      <c r="Z3" s="36">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA3" s="48">
+      <c r="AA3" s="36">
         <v>0.5</v>
       </c>
-      <c r="AB3" s="48"/>
-      <c r="AC3" s="48"/>
-      <c r="AD3" s="48"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
       <c r="AE3" s="6">
         <v>3</v>
       </c>
@@ -6765,19 +7841,19 @@
         <f t="shared" si="7"/>
         <v>-0.57000000000000028</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="16">
         <v>0.54</v>
       </c>
-      <c r="Y4" s="28">
+      <c r="Y4" s="16">
         <v>0.84</v>
       </c>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16">
         <v>0.69</v>
       </c>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
       <c r="AE4" s="6">
         <v>3</v>
       </c>
@@ -6859,17 +7935,17 @@
       <c r="W5" t="s">
         <v>176</v>
       </c>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-      <c r="AB5" s="28">
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="16">
         <v>0.8</v>
       </c>
-      <c r="AD5" s="28"/>
+      <c r="AD5" s="16"/>
       <c r="AE5" s="6">
         <v>2</v>
       </c>
@@ -6951,22 +8027,22 @@
       <c r="W6" t="s">
         <v>177</v>
       </c>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29">
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17">
         <v>0.88</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="17">
         <v>0.6</v>
       </c>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29">
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17">
         <v>0.63</v>
       </c>
-      <c r="AC6" s="29">
+      <c r="AC6" s="17">
         <v>0.75</v>
       </c>
-      <c r="AD6" s="28"/>
-      <c r="AE6" s="45">
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="33">
         <v>4</v>
       </c>
     </row>
@@ -7044,18 +8120,18 @@
         <f t="shared" si="9"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="X7" s="28"/>
-      <c r="Y7" s="28">
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="28">
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16">
         <v>0.52</v>
       </c>
       <c r="AE7" s="6">
@@ -7136,20 +8212,20 @@
         <f t="shared" si="7"/>
         <v>-0.9399999999999995</v>
       </c>
-      <c r="W8" s="25" t="s">
+      <c r="W8" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29">
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17">
         <v>0.72</v>
       </c>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AC8" s="29">
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17">
         <v>0.86</v>
       </c>
-      <c r="AD8" s="28"/>
+      <c r="AD8" s="16"/>
       <c r="AE8" s="6">
         <v>2</v>
       </c>
@@ -7228,20 +8304,20 @@
         <f t="shared" si="7"/>
         <v>-1.5600000000000005</v>
       </c>
-      <c r="W9" s="25" t="s">
+      <c r="W9" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28">
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16">
         <v>0.67</v>
       </c>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AD9" s="28"/>
+      <c r="AD9" s="16"/>
       <c r="AE9" s="6">
         <v>2</v>
       </c>
@@ -7320,24 +8396,24 @@
         <f t="shared" si="7"/>
         <v>0.46000000000000085</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29">
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17">
         <v>0.89</v>
       </c>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="28"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="16"/>
       <c r="AE10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7">
@@ -7410,25 +8486,25 @@
         <f t="shared" si="7"/>
         <v>1.4600000000000009</v>
       </c>
-      <c r="W11" s="26" t="s">
+      <c r="W11" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28">
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16">
         <v>0.79</v>
       </c>
-      <c r="Z11" s="28">
+      <c r="Z11" s="16">
         <v>0.6</v>
       </c>
-      <c r="AA11" s="28">
+      <c r="AA11" s="16">
         <v>0.59</v>
       </c>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28">
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16">
         <v>0.81</v>
       </c>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="38">
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="26">
         <v>4</v>
       </c>
     </row>
@@ -7506,22 +8582,22 @@
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="17">
         <v>0.66</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="17">
         <v>0.84</v>
       </c>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29">
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17">
         <v>0.64</v>
       </c>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="28"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="16"/>
       <c r="AE12" s="6">
         <v>3</v>
       </c>
@@ -7603,17 +8679,17 @@
       <c r="W13" t="s">
         <v>184</v>
       </c>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28">
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16">
         <v>0.51</v>
       </c>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28">
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16">
         <v>0.6</v>
       </c>
-      <c r="AD13" s="28"/>
+      <c r="AD13" s="16"/>
       <c r="AE13" s="6">
         <v>2</v>
       </c>
@@ -7692,13 +8768,13 @@
         <f t="shared" si="7"/>
         <v>-1.2999999999999989</v>
       </c>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="28"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="16"/>
       <c r="AE14" s="6" t="s">
         <v>186</v>
       </c>
@@ -7777,17 +8853,17 @@
         <f t="shared" si="7"/>
         <v>0.4399999999999995</v>
       </c>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28">
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16">
         <v>0.86</v>
       </c>
-      <c r="Z15" s="28">
+      <c r="Z15" s="16">
         <v>0.59</v>
       </c>
-      <c r="AA15" s="28"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="28">
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16">
         <v>0.63</v>
       </c>
       <c r="AE15" s="6">
@@ -7843,17 +8919,17 @@
         <f t="shared" si="10"/>
         <v>-0.86999999999999922</v>
       </c>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="29">
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17">
         <v>0.78</v>
       </c>
-      <c r="Z16" s="29">
+      <c r="Z16" s="17">
         <v>0.59</v>
       </c>
-      <c r="AA16" s="29"/>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="29"/>
-      <c r="AD16" s="28"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="16"/>
       <c r="AE16" s="6">
         <v>2</v>
       </c>
@@ -7935,17 +9011,17 @@
       <c r="W17" t="s">
         <v>187</v>
       </c>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="28">
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16">
         <v>0.59</v>
       </c>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
-      <c r="AB17" s="28">
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16">
         <v>0.65</v>
       </c>
-      <c r="AC17" s="28"/>
-      <c r="AD17" s="28"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16"/>
       <c r="AE17" s="6">
         <v>2</v>
       </c>
@@ -8027,17 +9103,17 @@
       <c r="W18" t="s">
         <v>188</v>
       </c>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29">
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17">
         <v>0.54</v>
       </c>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29">
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17">
         <v>0.68</v>
       </c>
-      <c r="AD18" s="28"/>
+      <c r="AD18" s="16"/>
       <c r="AE18" s="6">
         <v>2</v>
       </c>
@@ -8119,17 +9195,17 @@
       <c r="W19" t="s">
         <v>189</v>
       </c>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28">
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16">
         <v>0.92</v>
       </c>
-      <c r="Z19" s="28"/>
-      <c r="AA19" s="28"/>
-      <c r="AB19" s="28">
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16">
         <v>0.54</v>
       </c>
-      <c r="AC19" s="28"/>
-      <c r="AD19" s="28"/>
+      <c r="AC19" s="16"/>
+      <c r="AD19" s="16"/>
       <c r="AE19" s="6">
         <v>2</v>
       </c>
@@ -8208,15 +9284,15 @@
         <f t="shared" si="18"/>
         <v>0.75</v>
       </c>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29">
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17">
         <v>0.75</v>
       </c>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="28"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="16"/>
       <c r="AE20" s="6">
         <v>1</v>
       </c>
@@ -8298,17 +9374,17 @@
       <c r="W21" t="s">
         <v>190</v>
       </c>
-      <c r="X21" s="48">
+      <c r="X21" s="36">
         <v>0.82</v>
       </c>
-      <c r="Y21" s="48">
+      <c r="Y21" s="36">
         <v>0.87</v>
       </c>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="28"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="16"/>
       <c r="AE21" s="6">
         <v>2</v>
       </c>
@@ -8387,19 +9463,19 @@
         <f t="shared" si="18"/>
         <v>0.21000000000000085</v>
       </c>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29">
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17">
         <v>0.83</v>
       </c>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="29"/>
-      <c r="AB22" s="29">
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17">
         <v>0.61</v>
       </c>
-      <c r="AC22" s="29">
+      <c r="AC22" s="17">
         <v>0.85</v>
       </c>
-      <c r="AD22" s="28"/>
+      <c r="AD22" s="16"/>
       <c r="AE22" s="6">
         <v>2</v>
       </c>
@@ -8481,15 +9557,15 @@
       <c r="W23" t="s">
         <v>191</v>
       </c>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="28">
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16">
         <v>0.79</v>
       </c>
-      <c r="AD23" s="28"/>
+      <c r="AD23" s="16"/>
       <c r="AE23" s="6">
         <v>1</v>
       </c>
@@ -8571,17 +9647,17 @@
       <c r="W24" t="s">
         <v>192</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28">
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16">
         <v>0.71</v>
       </c>
-      <c r="Z24" s="28">
+      <c r="Z24" s="16">
         <v>0.68</v>
       </c>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
       <c r="AE24" s="6">
         <v>2</v>
       </c>
@@ -8663,17 +9739,17 @@
       <c r="W25" t="s">
         <v>193</v>
       </c>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28">
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16">
         <v>0.65</v>
       </c>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28">
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
+      <c r="AC25" s="16"/>
+      <c r="AD25" s="16"/>
       <c r="AE25" s="6">
         <v>2</v>
       </c>
@@ -8755,19 +9831,19 @@
       <c r="W26" t="s">
         <v>194</v>
       </c>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28">
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16">
         <v>0.96</v>
       </c>
-      <c r="Z26" s="28">
+      <c r="Z26" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="28">
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="16"/>
+      <c r="AC26" s="16">
         <v>0.88</v>
       </c>
-      <c r="AD26" s="28"/>
+      <c r="AD26" s="16"/>
       <c r="AE26" s="6">
         <v>3</v>
       </c>
@@ -8846,17 +9922,17 @@
         <f t="shared" si="18"/>
         <v>-5.9999999999999609E-2</v>
       </c>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28">
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16">
         <v>0.85</v>
       </c>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28">
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16">
         <v>0.65</v>
       </c>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
       <c r="AE27" s="6">
         <v>2</v>
       </c>
@@ -8938,17 +10014,17 @@
       <c r="W28" t="s">
         <v>195</v>
       </c>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48">
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36">
         <v>0.66</v>
       </c>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48">
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36">
         <v>0.53</v>
       </c>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
       <c r="AE28" s="6">
         <v>2</v>
       </c>
@@ -9030,17 +10106,17 @@
       <c r="W29" t="s">
         <v>196</v>
       </c>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28">
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16">
         <v>0.6</v>
       </c>
-      <c r="Z29" s="28">
+      <c r="Z29" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
+      <c r="AD29" s="16"/>
       <c r="AE29" s="6">
         <v>2</v>
       </c>
@@ -9122,22 +10198,22 @@
       <c r="W30" t="s">
         <v>197</v>
       </c>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28">
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16">
         <v>0.7</v>
       </c>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28">
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="16">
         <v>0.61</v>
       </c>
-      <c r="AB30" s="28">
+      <c r="AB30" s="16">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AC30" s="28">
+      <c r="AC30" s="16">
         <v>0.73</v>
       </c>
-      <c r="AD30" s="28"/>
-      <c r="AE30" s="38">
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="26">
         <v>4</v>
       </c>
     </row>
@@ -9218,22 +10294,22 @@
       <c r="W31" t="s">
         <v>198</v>
       </c>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28">
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16">
         <v>0.82</v>
       </c>
-      <c r="Z31" s="28">
+      <c r="Z31" s="16">
         <v>0.64</v>
       </c>
-      <c r="AA31" s="28"/>
-      <c r="AB31" s="28">
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AC31" s="28">
+      <c r="AC31" s="16">
         <v>0.62</v>
       </c>
-      <c r="AD31" s="28"/>
-      <c r="AE31" s="38">
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="26">
         <v>3</v>
       </c>
     </row>
@@ -9314,24 +10390,24 @@
       <c r="W32" t="s">
         <v>199</v>
       </c>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28">
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16">
         <v>0.7</v>
       </c>
-      <c r="Z32" s="28">
+      <c r="Z32" s="16">
         <v>0.59</v>
       </c>
-      <c r="AA32" s="28">
+      <c r="AA32" s="16">
         <v>0.53</v>
       </c>
-      <c r="AB32" s="28">
+      <c r="AB32" s="16">
         <v>0.61</v>
       </c>
-      <c r="AC32" s="28">
+      <c r="AC32" s="16">
         <v>0.88</v>
       </c>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="38">
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="26">
         <v>5</v>
       </c>
     </row>
@@ -9412,18 +10488,18 @@
       <c r="W33" t="s">
         <v>200</v>
       </c>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28">
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16">
         <v>0.94</v>
       </c>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="28">
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="16"/>
+      <c r="AC33" s="16">
         <v>0.53</v>
       </c>
-      <c r="AD33" s="28"/>
-      <c r="AE33" s="46">
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="34">
         <v>2</v>
       </c>
     </row>
@@ -9504,20 +10580,20 @@
       <c r="W34" t="s">
         <v>201</v>
       </c>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28">
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16">
         <v>0.89</v>
       </c>
-      <c r="Z34" s="28">
+      <c r="Z34" s="16">
         <v>0.6</v>
       </c>
-      <c r="AA34" s="28"/>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="28">
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="16"/>
+      <c r="AC34" s="16">
         <v>0.69</v>
       </c>
-      <c r="AD34" s="28"/>
-      <c r="AE34" s="46">
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="34">
         <v>3</v>
       </c>
     </row>
@@ -9598,18 +10674,18 @@
       <c r="W35" t="s">
         <v>202</v>
       </c>
-      <c r="X35" s="28">
+      <c r="X35" s="16">
         <v>0.81</v>
       </c>
-      <c r="Y35" s="28">
+      <c r="Y35" s="16">
         <v>0.94</v>
       </c>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28"/>
-      <c r="AE35" s="46">
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="16"/>
+      <c r="AC35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="34">
         <v>2</v>
       </c>
     </row>
@@ -9687,18 +10763,18 @@
         <f t="shared" si="18"/>
         <v>-3.59</v>
       </c>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28">
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16">
         <v>0.53</v>
       </c>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28">
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
+      <c r="AB36" s="16">
         <v>0.7</v>
       </c>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="46">
+      <c r="AC36" s="16"/>
+      <c r="AD36" s="16"/>
+      <c r="AE36" s="34">
         <v>2</v>
       </c>
     </row>
@@ -9779,22 +10855,22 @@
       <c r="W37" t="s">
         <v>203</v>
       </c>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28">
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16">
         <v>0.82</v>
       </c>
-      <c r="Z37" s="28">
+      <c r="Z37" s="16">
         <v>0.6</v>
       </c>
-      <c r="AA37" s="28"/>
-      <c r="AB37" s="28">
+      <c r="AA37" s="16"/>
+      <c r="AB37" s="16">
         <v>0.51</v>
       </c>
-      <c r="AC37" s="28">
+      <c r="AC37" s="16">
         <v>0.79</v>
       </c>
-      <c r="AD37" s="28"/>
-      <c r="AE37" s="46">
+      <c r="AD37" s="16"/>
+      <c r="AE37" s="34">
         <v>4</v>
       </c>
     </row>
@@ -9875,18 +10951,18 @@
       <c r="W38" t="s">
         <v>204</v>
       </c>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28">
+      <c r="X38" s="16"/>
+      <c r="Y38" s="16">
         <v>0.64</v>
       </c>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28">
+      <c r="Z38" s="16"/>
+      <c r="AA38" s="16"/>
+      <c r="AB38" s="16"/>
+      <c r="AC38" s="16"/>
+      <c r="AD38" s="16">
         <v>0.51</v>
       </c>
-      <c r="AE38" s="46">
+      <c r="AE38" s="34">
         <v>2</v>
       </c>
     </row>
@@ -9967,18 +11043,18 @@
       <c r="W39" t="s">
         <v>205</v>
       </c>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28">
+      <c r="X39" s="16"/>
+      <c r="Y39" s="16">
         <v>0.84</v>
       </c>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="28">
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16">
         <v>0.84</v>
       </c>
-      <c r="AD39" s="28"/>
-      <c r="AE39" s="46">
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10059,18 +11135,18 @@
       <c r="W40" t="s">
         <v>206</v>
       </c>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28">
+      <c r="X40" s="16"/>
+      <c r="Y40" s="16">
         <v>0.82</v>
       </c>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28">
+      <c r="Z40" s="16"/>
+      <c r="AA40" s="16"/>
+      <c r="AB40" s="16"/>
+      <c r="AC40" s="16">
         <v>0.68</v>
       </c>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="46">
+      <c r="AD40" s="16"/>
+      <c r="AE40" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10151,16 +11227,16 @@
       <c r="W41" t="s">
         <v>207</v>
       </c>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28">
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16">
         <v>0.5</v>
       </c>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28"/>
-      <c r="AE41" s="46">
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10241,16 +11317,16 @@
       <c r="W42" t="s">
         <v>208</v>
       </c>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28">
+      <c r="X42" s="16"/>
+      <c r="Y42" s="16">
         <v>0.77</v>
       </c>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="46">
+      <c r="Z42" s="16"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+      <c r="AD42" s="16"/>
+      <c r="AE42" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10331,18 +11407,18 @@
       <c r="W43" t="s">
         <v>209</v>
       </c>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28">
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16">
         <v>0.88</v>
       </c>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
-      <c r="AB43" s="28"/>
-      <c r="AC43" s="28">
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16">
         <v>0.81</v>
       </c>
-      <c r="AD43" s="28"/>
-      <c r="AE43" s="46">
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10420,20 +11496,20 @@
         <f t="shared" si="18"/>
         <v>0.5600000000000005</v>
       </c>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28">
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16">
         <v>0.91</v>
       </c>
-      <c r="Z44" s="28">
+      <c r="Z44" s="16">
         <v>0.59</v>
       </c>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28">
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16">
         <v>0.75</v>
       </c>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="46">
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="34">
         <v>3</v>
       </c>
     </row>
@@ -10514,16 +11590,16 @@
       <c r="W45" t="s">
         <v>210</v>
       </c>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
-      <c r="AB45" s="28"/>
-      <c r="AC45" s="28">
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16">
         <v>0.79</v>
       </c>
-      <c r="AD45" s="28"/>
-      <c r="AE45" s="46">
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="34">
         <v>1</v>
       </c>
     </row>
@@ -10604,18 +11680,18 @@
       <c r="W46" t="s">
         <v>211</v>
       </c>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28">
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16">
         <v>0.75</v>
       </c>
-      <c r="Z46" s="28">
+      <c r="Z46" s="16">
         <v>0.52</v>
       </c>
-      <c r="AA46" s="28"/>
-      <c r="AB46" s="28"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28"/>
-      <c r="AE46" s="46">
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10696,18 +11772,18 @@
       <c r="W47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28">
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16">
         <v>0.91</v>
       </c>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
-      <c r="AB47" s="28"/>
-      <c r="AC47" s="28">
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16">
         <v>0.52</v>
       </c>
-      <c r="AD47" s="28"/>
-      <c r="AE47" s="46">
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10788,18 +11864,18 @@
       <c r="W48" t="s">
         <v>213</v>
       </c>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="48">
+      <c r="X48" s="16"/>
+      <c r="Y48" s="36">
         <v>0.84</v>
       </c>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48">
+      <c r="Z48" s="36"/>
+      <c r="AA48" s="36"/>
+      <c r="AB48" s="36">
         <v>0.53</v>
       </c>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="46">
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10877,18 +11953,18 @@
         <f t="shared" si="18"/>
         <v>1.5700000000000003</v>
       </c>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28">
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16">
         <v>0.52</v>
       </c>
-      <c r="Z49" s="28">
+      <c r="Z49" s="16">
         <v>0.71</v>
       </c>
-      <c r="AA49" s="28"/>
-      <c r="AB49" s="28"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28"/>
-      <c r="AE49" s="46">
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="34">
         <v>2</v>
       </c>
     </row>
@@ -10966,23 +12042,23 @@
         <f t="shared" si="18"/>
         <v>-0.28000000000000114</v>
       </c>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28">
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16">
         <v>0.67</v>
       </c>
-      <c r="Z50" s="28">
+      <c r="Z50" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA50" s="28"/>
-      <c r="AB50" s="28"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="46">
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="7">
@@ -11027,55 +12103,55 @@
       <c r="O51" s="1">
         <v>10.89</v>
       </c>
-      <c r="P51" s="27">
+      <c r="P51" s="15">
         <f t="shared" si="12"/>
         <v>-0.5600000000000005</v>
       </c>
-      <c r="Q51" s="27">
+      <c r="Q51" s="15">
         <f t="shared" si="13"/>
         <v>-0.41000000000000014</v>
       </c>
-      <c r="R51" s="27">
+      <c r="R51" s="15">
         <f t="shared" si="14"/>
         <v>-0.33999999999999986</v>
       </c>
-      <c r="S51" s="27">
+      <c r="S51" s="15">
         <f t="shared" si="15"/>
         <v>-2.9999999999999361E-2</v>
       </c>
-      <c r="T51" s="27">
+      <c r="T51" s="15">
         <f t="shared" si="16"/>
         <v>-0.58999999999999986</v>
       </c>
-      <c r="U51" s="27">
+      <c r="U51" s="15">
         <f t="shared" si="17"/>
         <v>-0.37999999999999901</v>
       </c>
-      <c r="V51" s="27">
+      <c r="V51" s="15">
         <f t="shared" si="18"/>
         <v>-0.53999999999999915</v>
       </c>
-      <c r="W51" s="37" t="s">
+      <c r="W51" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28">
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16">
         <v>0.7</v>
       </c>
-      <c r="Z51" s="28">
+      <c r="Z51" s="16">
         <v>0.54</v>
       </c>
-      <c r="AA51" s="28"/>
-      <c r="AB51" s="28">
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16">
         <v>0.5</v>
       </c>
-      <c r="AC51" s="28">
+      <c r="AC51" s="16">
         <v>0.9</v>
       </c>
-      <c r="AD51" s="39">
+      <c r="AD51" s="27">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE51" s="46">
+      <c r="AE51" s="34">
         <v>5</v>
       </c>
     </row>
@@ -11156,20 +12232,20 @@
       <c r="W52" t="s">
         <v>215</v>
       </c>
-      <c r="X52" s="28"/>
-      <c r="Y52" s="28">
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16">
         <v>0.84</v>
       </c>
-      <c r="Z52" s="28">
+      <c r="Z52" s="16">
         <v>0.59</v>
       </c>
-      <c r="AA52" s="28"/>
-      <c r="AB52" s="28"/>
-      <c r="AC52" s="28">
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16">
         <v>0.75</v>
       </c>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="46">
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="34">
         <v>3</v>
       </c>
     </row>
@@ -11206,13 +12282,13 @@
         <f t="shared" si="19"/>
         <v>9.7100000000000009</v>
       </c>
-      <c r="X53" s="41"/>
-      <c r="Y53" s="41"/>
-      <c r="Z53" s="41"/>
-      <c r="AA53" s="41"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41"/>
-      <c r="AD53" s="41"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="29"/>
+      <c r="AA53" s="29"/>
+      <c r="AB53" s="29"/>
+      <c r="AC53" s="29"/>
+      <c r="AD53" s="29"/>
     </row>
     <row r="54" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -11291,18 +12367,18 @@
       <c r="W54" t="s">
         <v>216</v>
       </c>
-      <c r="X54" s="28"/>
-      <c r="Y54" s="28">
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16">
         <v>0.82</v>
       </c>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28"/>
-      <c r="AB54" s="28">
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16">
         <v>0.61</v>
       </c>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28"/>
-      <c r="AE54" s="46">
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="34">
         <v>2</v>
       </c>
     </row>
@@ -11383,22 +12459,22 @@
       <c r="W55" t="s">
         <v>217</v>
       </c>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28">
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z55" s="28">
+      <c r="Z55" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28">
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16">
         <v>0.66</v>
       </c>
-      <c r="AC55" s="28">
+      <c r="AC55" s="16">
         <v>0.84</v>
       </c>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="46">
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="34">
         <v>4</v>
       </c>
     </row>
@@ -11479,18 +12555,18 @@
       <c r="W56" t="s">
         <v>218</v>
       </c>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48">
+      <c r="X56" s="16"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="48">
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
+      <c r="AC56" s="36">
         <v>0.64</v>
       </c>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="46">
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="34">
         <v>2</v>
       </c>
     </row>
@@ -11571,20 +12647,20 @@
       <c r="W57" t="s">
         <v>219</v>
       </c>
-      <c r="X57" s="28"/>
-      <c r="Y57" s="28">
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16">
         <v>0.66</v>
       </c>
-      <c r="Z57" s="28">
+      <c r="Z57" s="16">
         <v>0.66</v>
       </c>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28">
+      <c r="AA57" s="16"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16">
         <v>0.75</v>
       </c>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="46">
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="34">
         <v>3</v>
       </c>
     </row>
@@ -11637,13 +12713,13 @@
         <f t="shared" si="18"/>
         <v>-10.86</v>
       </c>
-      <c r="X58" s="41"/>
-      <c r="Y58" s="41"/>
-      <c r="Z58" s="41"/>
-      <c r="AA58" s="41"/>
-      <c r="AB58" s="41"/>
-      <c r="AC58" s="41"/>
-      <c r="AD58" s="41"/>
+      <c r="X58" s="29"/>
+      <c r="Y58" s="29"/>
+      <c r="Z58" s="29"/>
+      <c r="AA58" s="29"/>
+      <c r="AB58" s="29"/>
+      <c r="AC58" s="29"/>
+      <c r="AD58" s="29"/>
     </row>
     <row r="59" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -11722,22 +12798,22 @@
       <c r="W59" t="s">
         <v>220</v>
       </c>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="28">
+      <c r="X59" s="16"/>
+      <c r="Y59" s="16">
         <v>0.65</v>
       </c>
-      <c r="Z59" s="28">
+      <c r="Z59" s="16">
         <v>0.62</v>
       </c>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28">
+      <c r="AA59" s="16"/>
+      <c r="AB59" s="16">
         <v>0.51</v>
       </c>
-      <c r="AC59" s="28">
+      <c r="AC59" s="16">
         <v>0.66</v>
       </c>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="46">
+      <c r="AD59" s="16"/>
+      <c r="AE59" s="34">
         <v>4</v>
       </c>
     </row>
@@ -11791,16 +12867,16 @@
         <f t="shared" si="18"/>
         <v>13.26</v>
       </c>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28">
+      <c r="X60" s="16"/>
+      <c r="Y60" s="16"/>
+      <c r="Z60" s="16"/>
+      <c r="AA60" s="16"/>
+      <c r="AB60" s="16">
         <v>0.54</v>
       </c>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="46">
+      <c r="AC60" s="16"/>
+      <c r="AD60" s="16"/>
+      <c r="AE60" s="34">
         <v>1</v>
       </c>
     </row>
@@ -11881,18 +12957,18 @@
       <c r="W61" t="s">
         <v>221</v>
       </c>
-      <c r="X61" s="28">
+      <c r="X61" s="16">
         <v>0.69</v>
       </c>
-      <c r="Y61" s="28">
+      <c r="Y61" s="16">
         <v>0.96</v>
       </c>
-      <c r="Z61" s="28"/>
-      <c r="AA61" s="28"/>
-      <c r="AB61" s="28"/>
-      <c r="AC61" s="28"/>
-      <c r="AD61" s="28"/>
-      <c r="AE61" s="46">
+      <c r="Z61" s="16"/>
+      <c r="AA61" s="16"/>
+      <c r="AB61" s="16"/>
+      <c r="AC61" s="16"/>
+      <c r="AD61" s="16"/>
+      <c r="AE61" s="34">
         <v>2</v>
       </c>
     </row>
@@ -11973,18 +13049,18 @@
       <c r="W62" t="s">
         <v>222</v>
       </c>
-      <c r="X62" s="28"/>
-      <c r="Y62" s="28">
+      <c r="X62" s="16"/>
+      <c r="Y62" s="16">
         <v>0.71</v>
       </c>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28">
+      <c r="Z62" s="16"/>
+      <c r="AA62" s="16"/>
+      <c r="AB62" s="16"/>
+      <c r="AC62" s="16">
         <v>0.69</v>
       </c>
-      <c r="AD62" s="28"/>
-      <c r="AE62" s="46">
+      <c r="AD62" s="16"/>
+      <c r="AE62" s="34">
         <v>2</v>
       </c>
     </row>
@@ -12040,20 +13116,20 @@
       <c r="W63" t="s">
         <v>223</v>
       </c>
-      <c r="X63" s="28">
+      <c r="X63" s="16">
         <v>0.6</v>
       </c>
-      <c r="Y63" s="28">
+      <c r="Y63" s="16">
         <v>0.86</v>
       </c>
-      <c r="Z63" s="28"/>
-      <c r="AA63" s="28"/>
-      <c r="AB63" s="28">
+      <c r="Z63" s="16"/>
+      <c r="AA63" s="16"/>
+      <c r="AB63" s="16">
         <v>0.59</v>
       </c>
-      <c r="AC63" s="28"/>
-      <c r="AD63" s="28"/>
-      <c r="AE63" s="46">
+      <c r="AC63" s="16"/>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="34">
         <v>3</v>
       </c>
     </row>
@@ -12134,18 +13210,18 @@
       <c r="W64" t="s">
         <v>224</v>
       </c>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28">
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16">
         <v>0.89</v>
       </c>
-      <c r="Z64" s="28"/>
-      <c r="AA64" s="28"/>
-      <c r="AB64" s="28">
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16">
         <v>0.59</v>
       </c>
-      <c r="AC64" s="28"/>
-      <c r="AD64" s="28"/>
-      <c r="AE64" s="46">
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="34">
         <v>2</v>
       </c>
     </row>
@@ -12226,25 +13302,25 @@
       <c r="W65" t="s">
         <v>225</v>
       </c>
-      <c r="X65" s="28">
+      <c r="X65" s="16">
         <v>0.64</v>
       </c>
-      <c r="Y65" s="28">
+      <c r="Y65" s="16">
         <v>0.77</v>
       </c>
-      <c r="Z65" s="28">
+      <c r="Z65" s="16">
         <v>0.54</v>
       </c>
-      <c r="AA65" s="28"/>
-      <c r="AB65" s="28"/>
-      <c r="AC65" s="28"/>
-      <c r="AD65" s="28"/>
-      <c r="AE65" s="46">
+      <c r="AA65" s="16"/>
+      <c r="AB65" s="16"/>
+      <c r="AC65" s="16"/>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="7">
@@ -12317,21 +13393,21 @@
         <f t="shared" si="18"/>
         <v>0.16000000000000014</v>
       </c>
-      <c r="W66" s="26" t="s">
+      <c r="W66" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="X66" s="28"/>
-      <c r="Y66" s="28">
+      <c r="X66" s="16"/>
+      <c r="Y66" s="16">
         <v>0.88</v>
       </c>
-      <c r="Z66" s="28"/>
-      <c r="AA66" s="28"/>
-      <c r="AB66" s="28"/>
-      <c r="AC66" s="28">
+      <c r="Z66" s="16"/>
+      <c r="AA66" s="16"/>
+      <c r="AB66" s="16"/>
+      <c r="AC66" s="16">
         <v>0.85</v>
       </c>
-      <c r="AD66" s="28"/>
-      <c r="AE66" s="46">
+      <c r="AD66" s="16"/>
+      <c r="AE66" s="34">
         <v>2</v>
       </c>
     </row>
@@ -12409,20 +13485,20 @@
         <f t="shared" si="18"/>
         <v>-0.73999999999999844</v>
       </c>
-      <c r="X67" s="28"/>
-      <c r="Y67" s="28">
+      <c r="X67" s="16"/>
+      <c r="Y67" s="16">
         <v>0.89</v>
       </c>
-      <c r="Z67" s="28"/>
-      <c r="AA67" s="28"/>
-      <c r="AB67" s="28">
+      <c r="Z67" s="16"/>
+      <c r="AA67" s="16"/>
+      <c r="AB67" s="16">
         <v>0.5</v>
       </c>
-      <c r="AC67" s="28">
+      <c r="AC67" s="16">
         <v>0.52</v>
       </c>
-      <c r="AD67" s="28"/>
-      <c r="AE67" s="46">
+      <c r="AD67" s="16"/>
+      <c r="AE67" s="34">
         <v>3</v>
       </c>
     </row>
@@ -12503,18 +13579,18 @@
       <c r="W68" t="s">
         <v>227</v>
       </c>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28">
+      <c r="X68" s="16"/>
+      <c r="Y68" s="16">
         <v>0.94</v>
       </c>
-      <c r="Z68" s="28">
+      <c r="Z68" s="16">
         <v>0.53</v>
       </c>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
-      <c r="AE68" s="46">
+      <c r="AA68" s="16"/>
+      <c r="AB68" s="16"/>
+      <c r="AC68" s="16"/>
+      <c r="AD68" s="16"/>
+      <c r="AE68" s="34">
         <v>2</v>
       </c>
     </row>
@@ -12595,18 +13671,18 @@
       <c r="W69" t="s">
         <v>228</v>
       </c>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="28">
+      <c r="X69" s="16"/>
+      <c r="Y69" s="16">
         <v>0.92</v>
       </c>
-      <c r="Z69" s="28"/>
-      <c r="AA69" s="28"/>
-      <c r="AB69" s="28">
+      <c r="Z69" s="16"/>
+      <c r="AA69" s="16"/>
+      <c r="AB69" s="16">
         <v>0.72</v>
       </c>
-      <c r="AC69" s="28"/>
-      <c r="AD69" s="28"/>
-      <c r="AE69" s="46">
+      <c r="AC69" s="16"/>
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="34">
         <v>2</v>
       </c>
     </row>
@@ -12687,16 +13763,16 @@
       <c r="W70" t="s">
         <v>229</v>
       </c>
-      <c r="X70" s="28"/>
-      <c r="Y70" s="28"/>
-      <c r="Z70" s="28"/>
-      <c r="AA70" s="28"/>
-      <c r="AB70" s="28">
+      <c r="X70" s="16"/>
+      <c r="Y70" s="16"/>
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16">
         <v>0.83</v>
       </c>
-      <c r="AC70" s="28"/>
-      <c r="AD70" s="28"/>
-      <c r="AE70" s="46">
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
+      <c r="AE70" s="34">
         <v>1</v>
       </c>
     </row>
@@ -12777,20 +13853,20 @@
       <c r="W71" t="s">
         <v>230</v>
       </c>
-      <c r="X71" s="28">
+      <c r="X71" s="16">
         <v>0.5</v>
       </c>
-      <c r="Y71" s="28">
+      <c r="Y71" s="16">
         <v>0.75</v>
       </c>
-      <c r="Z71" s="28"/>
-      <c r="AA71" s="28"/>
-      <c r="AB71" s="28">
+      <c r="Z71" s="16"/>
+      <c r="AA71" s="16"/>
+      <c r="AB71" s="16">
         <v>0.61</v>
       </c>
-      <c r="AC71" s="28"/>
-      <c r="AD71" s="28"/>
-      <c r="AE71" s="46">
+      <c r="AC71" s="16"/>
+      <c r="AD71" s="16"/>
+      <c r="AE71" s="34">
         <v>3</v>
       </c>
     </row>
@@ -12843,20 +13919,20 @@
         <f t="shared" si="21"/>
         <v>4.0199999999999996</v>
       </c>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="28">
+      <c r="X72" s="16"/>
+      <c r="Y72" s="16">
         <v>0.65</v>
       </c>
-      <c r="Z72" s="28">
+      <c r="Z72" s="16">
         <v>0.6</v>
       </c>
-      <c r="AA72" s="28"/>
-      <c r="AB72" s="28"/>
-      <c r="AC72" s="28">
+      <c r="AA72" s="16"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="16">
         <v>0.68</v>
       </c>
-      <c r="AD72" s="28"/>
-      <c r="AE72" s="46">
+      <c r="AD72" s="16"/>
+      <c r="AE72" s="34">
         <v>3</v>
       </c>
     </row>
@@ -12937,18 +14013,18 @@
       <c r="W73" t="s">
         <v>231</v>
       </c>
-      <c r="X73" s="28"/>
-      <c r="Y73" s="28">
+      <c r="X73" s="16"/>
+      <c r="Y73" s="16">
         <v>0.95</v>
       </c>
-      <c r="Z73" s="28"/>
-      <c r="AA73" s="28"/>
-      <c r="AB73" s="28"/>
-      <c r="AC73" s="28">
+      <c r="Z73" s="16"/>
+      <c r="AA73" s="16"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="16">
         <v>0.94</v>
       </c>
-      <c r="AD73" s="28"/>
-      <c r="AE73" s="46">
+      <c r="AD73" s="16"/>
+      <c r="AE73" s="34">
         <v>2</v>
       </c>
     </row>
@@ -13029,86 +14105,86 @@
       <c r="W74" t="s">
         <v>233</v>
       </c>
-      <c r="X74" s="28"/>
-      <c r="Y74" s="28">
+      <c r="X74" s="16"/>
+      <c r="Y74" s="16">
         <v>0.9</v>
       </c>
-      <c r="Z74" s="28"/>
-      <c r="AA74" s="28"/>
-      <c r="AB74" s="28">
+      <c r="Z74" s="16"/>
+      <c r="AA74" s="16"/>
+      <c r="AB74" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AC74" s="28"/>
-      <c r="AD74" s="28"/>
-      <c r="AE74" s="46">
+      <c r="AC74" s="16"/>
+      <c r="AD74" s="16"/>
+      <c r="AE74" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
+      <c r="A75" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="42"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="44">
+      <c r="B75" s="31"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="32">
         <v>16.309999999999999</v>
       </c>
-      <c r="J75" s="44">
+      <c r="J75" s="32">
         <v>14.25</v>
       </c>
-      <c r="K75" s="44">
+      <c r="K75" s="32">
         <v>14.55</v>
       </c>
-      <c r="L75" s="44">
+      <c r="L75" s="32">
         <v>13.89</v>
       </c>
-      <c r="M75" s="44">
+      <c r="M75" s="32">
         <v>15.52</v>
       </c>
-      <c r="N75" s="44">
+      <c r="N75" s="32">
         <v>14.91</v>
       </c>
-      <c r="O75" s="44">
+      <c r="O75" s="32">
         <v>14.55</v>
       </c>
-      <c r="P75" s="42"/>
-      <c r="Q75" s="42">
+      <c r="P75" s="30"/>
+      <c r="Q75" s="30">
         <f t="shared" si="13"/>
         <v>14.25</v>
       </c>
-      <c r="R75" s="42">
+      <c r="R75" s="30">
         <f t="shared" si="14"/>
         <v>14.55</v>
       </c>
-      <c r="S75" s="42">
+      <c r="S75" s="30">
         <f t="shared" si="15"/>
         <v>13.89</v>
       </c>
-      <c r="T75" s="42">
+      <c r="T75" s="30">
         <f t="shared" si="16"/>
         <v>15.52</v>
       </c>
-      <c r="U75" s="42">
+      <c r="U75" s="30">
         <f t="shared" si="17"/>
         <v>14.91</v>
       </c>
-      <c r="V75" s="42">
+      <c r="V75" s="30">
         <f t="shared" si="18"/>
         <v>14.55</v>
       </c>
-      <c r="W75" s="42"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="41"/>
-      <c r="AC75" s="41"/>
-      <c r="AD75" s="41"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="29"/>
+      <c r="Y75" s="29"/>
+      <c r="Z75" s="29"/>
+      <c r="AA75" s="29"/>
+      <c r="AB75" s="29"/>
+      <c r="AC75" s="29"/>
+      <c r="AD75" s="29"/>
     </row>
     <row r="76" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -13187,22 +14263,22 @@
       <c r="W76" t="s">
         <v>232</v>
       </c>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28">
+      <c r="X76" s="16"/>
+      <c r="Y76" s="16">
         <v>0.83</v>
       </c>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28">
+      <c r="Z76" s="16"/>
+      <c r="AA76" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AB76" s="28">
+      <c r="AB76" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AC76" s="28">
+      <c r="AC76" s="16">
         <v>0.69</v>
       </c>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="46">
+      <c r="AD76" s="16"/>
+      <c r="AE76" s="34">
         <v>4</v>
       </c>
     </row>
@@ -13280,20 +14356,20 @@
         <f t="shared" si="18"/>
         <v>-0.69999999999999929</v>
       </c>
-      <c r="X77" s="28"/>
-      <c r="Y77" s="28">
+      <c r="X77" s="16"/>
+      <c r="Y77" s="16">
         <v>0.93</v>
       </c>
-      <c r="Z77" s="28">
+      <c r="Z77" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA77" s="28"/>
-      <c r="AB77" s="28"/>
-      <c r="AC77" s="28">
+      <c r="AA77" s="16"/>
+      <c r="AB77" s="16"/>
+      <c r="AC77" s="16">
         <v>0.93</v>
       </c>
-      <c r="AD77" s="28"/>
-      <c r="AE77" s="46">
+      <c r="AD77" s="16"/>
+      <c r="AE77" s="34">
         <v>3</v>
       </c>
     </row>
@@ -13374,18 +14450,18 @@
       <c r="W78" t="s">
         <v>234</v>
       </c>
-      <c r="X78" s="28"/>
-      <c r="Y78" s="28">
+      <c r="X78" s="16"/>
+      <c r="Y78" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="Z78" s="28">
+      <c r="Z78" s="16">
         <v>0.73</v>
       </c>
-      <c r="AA78" s="28"/>
-      <c r="AB78" s="28"/>
-      <c r="AC78" s="28"/>
-      <c r="AD78" s="28"/>
-      <c r="AE78" s="46">
+      <c r="AA78" s="16"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="34">
         <v>2</v>
       </c>
     </row>
@@ -13463,22 +14539,22 @@
         <f t="shared" si="18"/>
         <v>-0.36999999999999922</v>
       </c>
-      <c r="X79" s="28"/>
-      <c r="Y79" s="28">
+      <c r="X79" s="16"/>
+      <c r="Y79" s="16">
         <v>0.92</v>
       </c>
-      <c r="Z79" s="28">
+      <c r="Z79" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AA79" s="28">
+      <c r="AA79" s="16">
         <v>0.51</v>
       </c>
-      <c r="AB79" s="28">
+      <c r="AB79" s="16">
         <v>0.54</v>
       </c>
-      <c r="AC79" s="28"/>
-      <c r="AD79" s="28"/>
-      <c r="AE79" s="46">
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
+      <c r="AE79" s="34">
         <v>4</v>
       </c>
     </row>
@@ -13559,18 +14635,18 @@
       <c r="W80" t="s">
         <v>235</v>
       </c>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28">
+      <c r="X80" s="16"/>
+      <c r="Y80" s="16">
         <v>0.87</v>
       </c>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28">
+      <c r="Z80" s="16"/>
+      <c r="AA80" s="16"/>
+      <c r="AB80" s="16"/>
+      <c r="AC80" s="16">
         <v>0.86</v>
       </c>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="46">
+      <c r="AD80" s="16"/>
+      <c r="AE80" s="34">
         <v>2</v>
       </c>
     </row>
@@ -13651,18 +14727,18 @@
       <c r="W81" t="s">
         <v>236</v>
       </c>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28">
+      <c r="X81" s="16"/>
+      <c r="Y81" s="16">
         <v>0.93</v>
       </c>
-      <c r="Z81" s="28">
+      <c r="Z81" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
-      <c r="AE81" s="46">
+      <c r="AA81" s="16"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
+      <c r="AE81" s="34">
         <v>2</v>
       </c>
     </row>
@@ -13740,18 +14816,18 @@
         <f t="shared" ref="V82:V83" si="34">O82-H82</f>
         <v>0.59000000000000163</v>
       </c>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="28">
+      <c r="X82" s="16"/>
+      <c r="Y82" s="16">
         <v>0.79</v>
       </c>
-      <c r="Z82" s="28">
+      <c r="Z82" s="16">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AA82" s="28"/>
-      <c r="AB82" s="28"/>
-      <c r="AC82" s="28"/>
-      <c r="AD82" s="28"/>
-      <c r="AE82" s="46">
+      <c r="AA82" s="16"/>
+      <c r="AB82" s="16"/>
+      <c r="AC82" s="16"/>
+      <c r="AD82" s="16"/>
+      <c r="AE82" s="34">
         <v>2</v>
       </c>
     </row>
@@ -13829,22 +14905,22 @@
         <f t="shared" si="34"/>
         <v>-1.6199999999999992</v>
       </c>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="28">
+      <c r="X83" s="16"/>
+      <c r="Y83" s="16">
         <v>0.85</v>
       </c>
-      <c r="Z83" s="28">
+      <c r="Z83" s="16">
         <v>0.67</v>
       </c>
-      <c r="AA83" s="28"/>
-      <c r="AB83" s="28"/>
-      <c r="AC83" s="28"/>
-      <c r="AD83" s="28"/>
-      <c r="AE83" s="46">
+      <c r="AA83" s="16"/>
+      <c r="AB83" s="16"/>
+      <c r="AC83" s="16"/>
+      <c r="AD83" s="16"/>
+      <c r="AE83" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:31" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -13933,277 +15009,396 @@
         <v>5.48780487804901E-3</v>
       </c>
       <c r="W84" s="7"/>
-      <c r="X84" s="36">
+      <c r="X84" s="24">
         <f>COUNT(X2:X83)</f>
         <v>9</v>
       </c>
-      <c r="Y84" s="36">
+      <c r="Y84" s="24">
         <f>COUNT(Y2:Y83)</f>
         <v>72</v>
       </c>
-      <c r="Z84" s="36">
+      <c r="Z84" s="24">
         <f>COUNT(Z2:Z83)</f>
         <v>31</v>
       </c>
-      <c r="AA84" s="36">
+      <c r="AA84" s="24">
         <f t="shared" ref="AA84:AD84" si="36">COUNT(AA2:AA83)</f>
         <v>6</v>
       </c>
-      <c r="AB84" s="36">
+      <c r="AB84" s="24">
         <f t="shared" si="36"/>
         <v>30</v>
       </c>
-      <c r="AC84" s="36">
+      <c r="AC84" s="24">
         <f t="shared" si="36"/>
         <v>36</v>
       </c>
-      <c r="AD84" s="36">
+      <c r="AD84" s="24">
         <f t="shared" si="36"/>
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B85">
+    <row r="85" spans="1:31" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" s="7">
+        <f>STDEV(B2:B84)</f>
+        <v>2.4875242500784864</v>
+      </c>
+      <c r="C85" s="7">
+        <f t="shared" ref="C85:F85" si="37">STDEV(C2:C84)</f>
+        <v>2.3066852467190873</v>
+      </c>
+      <c r="D85" s="7">
+        <f t="shared" si="37"/>
+        <v>1.784213249688857</v>
+      </c>
+      <c r="E85" s="7">
+        <f t="shared" si="37"/>
+        <v>1.8236692035245858</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="37"/>
+        <v>2.7898263107971499</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+    </row>
+    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
         <f>MIN(B1:B83)</f>
         <v>7.29</v>
       </c>
+      <c r="C86" s="6">
+        <f t="shared" ref="C86:F86" si="38">MIN(C1:C83)</f>
+        <v>5.33</v>
+      </c>
+      <c r="D86" s="6">
+        <f t="shared" si="38"/>
+        <v>7.49</v>
+      </c>
+      <c r="E86" s="6">
+        <f t="shared" si="38"/>
+        <v>6.18</v>
+      </c>
+      <c r="F86" s="6">
+        <f t="shared" si="38"/>
+        <v>6.26</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
-      <c r="W87" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="X87" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y87" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z87" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA87" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="AB87" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC87" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD87" s="36" t="s">
-        <v>179</v>
+    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" s="47">
+        <f>MEDIAN(B2:B84)</f>
+        <v>13.495000000000001</v>
+      </c>
+      <c r="C87" s="47">
+        <f t="shared" ref="C87:F87" si="39">MEDIAN(C2:C84)</f>
+        <v>10.895</v>
+      </c>
+      <c r="D87" s="47">
+        <f t="shared" si="39"/>
+        <v>12.3</v>
+      </c>
+      <c r="E87" s="47">
+        <f t="shared" si="39"/>
+        <v>10.719999999999999</v>
+      </c>
+      <c r="F87" s="47">
+        <f t="shared" si="39"/>
+        <v>11.805</v>
       </c>
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B88" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="F88" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="G88" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I88" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="W88" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="X88" s="36">
-        <v>9</v>
-      </c>
-      <c r="Y88" s="36">
-        <v>72</v>
-      </c>
-      <c r="Z88" s="36">
-        <f>COUNT(Z6:Z87)</f>
-        <v>31</v>
-      </c>
-      <c r="AA88" s="36">
-        <f t="shared" ref="AA88" si="37">COUNT(AA6:AA87)</f>
-        <v>6</v>
-      </c>
-      <c r="AB88" s="36">
-        <v>30</v>
-      </c>
-      <c r="AC88" s="36">
-        <f t="shared" ref="AC88" si="38">COUNT(AC6:AC87)</f>
-        <v>36</v>
-      </c>
-      <c r="AD88" s="36">
-        <f t="shared" ref="AD88" si="39">COUNT(AD6:AD87)</f>
-        <v>5</v>
+      <c r="A88" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" s="47">
+        <f>MAX(B2:B84)</f>
+        <v>19.63</v>
+      </c>
+      <c r="C88" s="47">
+        <f t="shared" ref="C88:F88" si="40">MAX(C2:C84)</f>
+        <v>16.52</v>
+      </c>
+      <c r="D88" s="47">
+        <f t="shared" si="40"/>
+        <v>16.649999999999999</v>
+      </c>
+      <c r="E88" s="47">
+        <f t="shared" si="40"/>
+        <v>14.77</v>
+      </c>
+      <c r="F88" s="47">
+        <f t="shared" si="40"/>
+        <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>2019</v>
-      </c>
-      <c r="B89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;4", B2:B83,"&lt;6")</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;6", B2:B83,"&lt;8")</f>
-        <v>1</v>
-      </c>
-      <c r="D89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;8", B2:B83,"&lt;10")</f>
-        <v>4</v>
-      </c>
-      <c r="E89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;10", B2:B83,"&lt;12")</f>
-        <v>11</v>
-      </c>
-      <c r="F89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;12", B2:B83,"&lt;14")</f>
-        <v>30</v>
-      </c>
-      <c r="G89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;14", B2:B83,"&lt;16")</f>
-        <v>20</v>
-      </c>
-      <c r="H89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;17", B2:B83,"&lt;18")</f>
-        <v>2</v>
-      </c>
-      <c r="I89" s="22">
-        <f>COUNTIFS(B2:B83,"&gt;18", B2:B83,"&lt;20")</f>
-        <v>5</v>
-      </c>
-      <c r="J89">
-        <f>SUM(B89:I89)</f>
-        <v>73</v>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="47">
+        <f>MIN(B2:B84)</f>
+        <v>7.29</v>
+      </c>
+      <c r="C89" s="47">
+        <f t="shared" ref="C89:F89" si="41">MIN(C2:C84)</f>
+        <v>5.33</v>
+      </c>
+      <c r="D89" s="47">
+        <f t="shared" si="41"/>
+        <v>7.49</v>
+      </c>
+      <c r="E89" s="47">
+        <f t="shared" si="41"/>
+        <v>6.18</v>
+      </c>
+      <c r="F89" s="47">
+        <f t="shared" si="41"/>
+        <v>6.26</v>
+      </c>
+      <c r="W89" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="X89" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y89" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z89" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA89" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB89" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC89" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD89" s="24" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>2019</v>
-      </c>
-      <c r="B90" s="23">
-        <f>B89/$J89</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="23">
-        <f t="shared" ref="C90:I90" si="40">C89/$J89</f>
-        <v>1.3698630136986301E-2</v>
-      </c>
-      <c r="D90" s="23">
-        <f t="shared" si="40"/>
-        <v>5.4794520547945202E-2</v>
-      </c>
-      <c r="E90" s="23">
-        <f t="shared" si="40"/>
-        <v>0.15068493150684931</v>
-      </c>
-      <c r="F90" s="23">
-        <f t="shared" si="40"/>
-        <v>0.41095890410958902</v>
-      </c>
-      <c r="G90" s="23">
-        <f t="shared" si="40"/>
-        <v>0.27397260273972601</v>
-      </c>
-      <c r="H90" s="23">
-        <f t="shared" si="40"/>
-        <v>2.7397260273972601E-2</v>
-      </c>
-      <c r="I90" s="23">
-        <f t="shared" si="40"/>
-        <v>6.8493150684931503E-2</v>
-      </c>
+    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="W90" s="35"/>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>2018</v>
-      </c>
-      <c r="B91" s="24">
-        <v>0</v>
-      </c>
-      <c r="C91" s="24">
-        <v>0</v>
-      </c>
-      <c r="D91" s="24">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="E91" s="24">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="F91" s="24">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="G91" s="24">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H91" s="24">
-        <v>0.18518518518518517</v>
-      </c>
-      <c r="I91" s="24">
-        <v>0</v>
-      </c>
-      <c r="J91" s="11">
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="X91" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="Y91" s="49" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z91" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA91" s="49" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB91" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC91" s="49" t="s">
-        <v>244</v>
-      </c>
+    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="W91" s="35"/>
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="X92" s="49">
+      <c r="B92" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D92" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E92" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G92" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H92" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="I92" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="W92" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="X92" s="24">
+        <v>9</v>
+      </c>
+      <c r="Y92" s="24">
+        <v>72</v>
+      </c>
+      <c r="Z92" s="24">
+        <f>COUNT(Z6:Z89)</f>
+        <v>31</v>
+      </c>
+      <c r="AA92" s="24">
+        <f t="shared" ref="AA92" si="42">COUNT(AA6:AA89)</f>
+        <v>6</v>
+      </c>
+      <c r="AB92" s="24">
+        <v>30</v>
+      </c>
+      <c r="AC92" s="24">
+        <f t="shared" ref="AC92" si="43">COUNT(AC6:AC89)</f>
+        <v>36</v>
+      </c>
+      <c r="AD92" s="24">
+        <f t="shared" ref="AD92" si="44">COUNT(AD6:AD89)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2019</v>
+      </c>
+      <c r="B93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;4", G2:G83,"&lt;6")</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;6", G2:G83,"&lt;8")</f>
+        <v>3</v>
+      </c>
+      <c r="D93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;8", G2:G83,"&lt;10")</f>
+        <v>11</v>
+      </c>
+      <c r="E93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;10", G2:G83,"&lt;12")</f>
+        <v>32</v>
+      </c>
+      <c r="F93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;12", G2:G83,"&lt;14")</f>
+        <v>21</v>
+      </c>
+      <c r="G93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;14", G2:G83,"&lt;16")</f>
+        <v>10</v>
+      </c>
+      <c r="H93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;17", G2:G83,"&lt;18")</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="6">
+        <f>COUNTIFS(G2:G83,"&gt;18", G2:G83,"&lt;20")</f>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f>SUM(B93:I93)</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2019</v>
+      </c>
+      <c r="B94" s="49">
+        <f>B93/$J93</f>
+        <v>0</v>
+      </c>
+      <c r="C94" s="49">
+        <f t="shared" ref="C94:I94" si="45">C93/$J93</f>
+        <v>3.896103896103896E-2</v>
+      </c>
+      <c r="D94" s="49">
+        <f t="shared" si="45"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E94" s="49">
+        <f t="shared" si="45"/>
+        <v>0.41558441558441561</v>
+      </c>
+      <c r="F94" s="49">
+        <f t="shared" si="45"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="G94" s="49">
+        <f t="shared" si="45"/>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="H94" s="49">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="49">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="11">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="X95" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y95" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z95" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA95" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB95" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC95" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="X96" s="37">
         <v>1</v>
       </c>
-      <c r="Y92" s="49">
+      <c r="Y96" s="37">
         <f>COUNTIF(AE3:AE83,"1")</f>
         <v>8</v>
       </c>
-      <c r="Z92" s="49">
+      <c r="Z96" s="37">
         <f>COUNTIF(AE3:AE83,"2")</f>
         <v>43</v>
       </c>
-      <c r="AA92" s="49">
+      <c r="AA96" s="37">
         <f>COUNTIF(AE3:AE83,"3")</f>
         <v>16</v>
       </c>
-      <c r="AB92" s="49">
+      <c r="AB96" s="37">
         <f>COUNTIF(AE3:AE83,"4")</f>
         <v>8</v>
       </c>
-      <c r="AC92" s="49">
+      <c r="AC96" s="37">
         <f>COUNTIF(AE3:AE83,"5")</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B88">
+  <conditionalFormatting sqref="B92">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -14215,7 +15410,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:I88">
+  <conditionalFormatting sqref="C92:I92">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -14254,33 +15449,33 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="18" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">

--- a/new Writing Analysis.xlsx
+++ b/new Writing Analysis.xlsx
@@ -10,12 +10,12 @@
     <sheet name="1A 1B 2019" sheetId="1" r:id="rId1"/>
     <sheet name="1A 1B 2018" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="252">
   <si>
     <t>Binu Abeysinghe</t>
   </si>
@@ -768,12 +768,15 @@
   </si>
   <si>
     <t>Maximum</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -994,7 +997,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,6 +1096,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1120,15 +1132,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1155,7 +1159,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1247,33 +1251,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11-12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13-14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15-16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19-20</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1281,7 +1258,7 @@
               <c:f>'1A 1B 2019'!$B$93:$I$93</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F021-4936-98AE-94D96A971841}"/>
             </c:ext>
@@ -1303,69 +1280,14 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11-12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13-14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15-16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19-20</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$94:$I$94</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.896103896103896E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41558441558441561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12987012987012986</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F021-4936-98AE-94D96A971841}"/>
             </c:ext>
@@ -1381,11 +1303,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="227998440"/>
-        <c:axId val="227998048"/>
+        <c:axId val="224768120"/>
+        <c:axId val="224777472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="227998440"/>
+        <c:axId val="224768120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227998048"/>
+        <c:crossAx val="224777472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1436,7 +1358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227998048"/>
+        <c:axId val="224777472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227998440"/>
+        <c:crossAx val="224768120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1537,7 +1459,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1596,7 +1518,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1618,7 +1540,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1639,7 +1561,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1658,7 +1580,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1677,7 +1599,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1742,7 +1664,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-BADF-40B9-AB71-1B48CCAD7AE6}"/>
             </c:ext>
@@ -1758,11 +1680,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="176181104"/>
-        <c:axId val="223378136"/>
+        <c:axId val="224476704"/>
+        <c:axId val="224546888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176181104"/>
+        <c:axId val="224476704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1852,7 +1774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223378136"/>
+        <c:crossAx val="224546888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1860,7 +1782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223378136"/>
+        <c:axId val="224546888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1887,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176181104"/>
+        <c:crossAx val="224476704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2019,7 +1941,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2161,7 +2083,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56F8-4896-9CAF-9B4B5E7B7631}"/>
             </c:ext>
@@ -2177,11 +2099,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="369201216"/>
-        <c:axId val="369201608"/>
+        <c:axId val="123916728"/>
+        <c:axId val="123917120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="369201216"/>
+        <c:axId val="123916728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369201608"/>
+        <c:crossAx val="123917120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="369201608"/>
+        <c:axId val="123917120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369201216"/>
+        <c:crossAx val="123916728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,7 +2255,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2436,6 +2358,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2443,7 +2617,7 @@
               <c:f>'1A 1B 2019'!$B$2:$B$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2476,6 +2650,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2483,7 +2909,7 @@
               <c:f>'1A 1B 2019'!$C$2:$C$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2516,6 +2942,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2523,7 +3201,7 @@
               <c:f>'1A 1B 2019'!$D$2:$D$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2556,6 +3234,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2563,7 +3493,7 @@
               <c:f>'1A 1B 2019'!$E$2:$E$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2596,6 +3526,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2603,7 +3785,7 @@
               <c:f>'1A 1B 2019'!$F$2:$F$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2636,6 +3818,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2643,7 +4077,7 @@
               <c:f>'1A 1B 2019'!$G$2:$G$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2678,6 +4112,258 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="83"/>
+                <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -2685,7 +4371,7 @@
               <c:f>'1A 1B 2019'!$H$2:$H$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2701,11 +4387,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="303933112"/>
-        <c:axId val="303932720"/>
+        <c:axId val="224990304"/>
+        <c:axId val="224990696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="303933112"/>
+        <c:axId val="224990304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +4434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303932720"/>
+        <c:crossAx val="224990696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2756,7 +4442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="303932720"/>
+        <c:axId val="224990696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +4493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="303933112"/>
+        <c:crossAx val="224990304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2889,7 +4575,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2937,11 +4623,266 @@
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>Maximum</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
                   <c:v>Minimum</c:v>
                 </c:pt>
               </c:strCache>
@@ -2950,19 +4891,9 @@
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$2:$B$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>19.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.29</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -2996,11 +4927,266 @@
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>Maximum</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
                   <c:v>Minimum</c:v>
                 </c:pt>
               </c:strCache>
@@ -3009,19 +5195,9 @@
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$C$2:$C$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>16.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.33</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -3055,11 +5231,266 @@
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>Maximum</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
                   <c:v>Minimum</c:v>
                 </c:pt>
               </c:strCache>
@@ -3068,19 +5499,9 @@
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$D$2:$D$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>16.649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.49</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -3114,11 +5535,266 @@
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>Maximum</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
                   <c:v>Minimum</c:v>
                 </c:pt>
               </c:strCache>
@@ -3127,19 +5803,9 @@
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$E$2:$E$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>14.77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.18</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -3173,11 +5839,266 @@
             <c:strRef>
               <c:f>'1A 1B 2019'!$A$2:$A$89</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
+                  <c:v>Binu Abeysinghe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Babra Ajaz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Joshua Allan</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jacob Allen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Jonathan Alphonso</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tomas Antunes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>James Beach</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Satnam Bhatt</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Jamie-Lee Bird</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Ajay Bisht</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sholto Bolton</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Jonathan Browne</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Iain Campbell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Gavin Cao</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Ming Chen</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Tianhang Chen</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Ting-Kai Chen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Ian Chua</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Joseph Chua</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Grace Cocks</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Simon Dawidowski</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Thomas Denham</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Devashish Dhyani</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Shane Du Plessis</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Matt Eden</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Miles Erwin-Atmore</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Kimberley Evans-Parker</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Maxwell Ferguson</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ken Fong</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Riley Fromont</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Rishab Goswami</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Thomas Greenop</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Rajan Gupta</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Andrew Harris</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Andy Huang</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Muhammad Azizul Islam</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Logan Kenwright</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Alex Kim</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>David Kim</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Joshua Kim</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Aarone Koshy</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Suraj Kumar</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Zichun Lin</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Daniel Macalister</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Teresito Magbag</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Parie Malhotra</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Josiah Miller</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Mohammad Mirza</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Yathursan Mohanathas</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Alexander Monk</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Lakshya Oberoi</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Basant Paguman Singh</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Meet Patel</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Bill Peng</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Nikolay Petin</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Michael Pham</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Mircea Popovici</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Ronaldo Pose</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Curtiss Rollinson</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Chris Ryu</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Kazuki Saegusa</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Feneel Sanghavi</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Johathan Sayalak</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Sherjeel Shehzad</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Ryan Smith</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Victor Startsev</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Kevin Tang</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Jacob Thornton</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Niko Tjandra</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Utsav Trivedi</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Ahmad Umar</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Huyue Wang</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Elliot Warner</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Rui Wen</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Blake Williams</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Eric Wong</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Grun Wua Wong</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Stephen Wu</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Jinzhao Xu</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Zile Yang</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Jason Yao</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Yiran Zou</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Score</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Standard Deviation</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Mean</c:v>
+                </c:pt>
+                <c:pt idx="86">
                   <c:v>Maximum</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="87">
                   <c:v>Minimum</c:v>
                 </c:pt>
               </c:strCache>
@@ -3186,19 +6107,9 @@
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$F$2:$F$89</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>18.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.26</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -3214,11 +6125,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2080777088"/>
-        <c:axId val="2080781664"/>
+        <c:axId val="224991872"/>
+        <c:axId val="224992264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080777088"/>
+        <c:axId val="224991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,7 +6172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080781664"/>
+        <c:crossAx val="224992264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3269,7 +6180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080781664"/>
+        <c:axId val="224992264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +6231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2080777088"/>
+        <c:crossAx val="224991872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3402,7 +6313,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3438,33 +6349,6 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11-12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13-14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15-16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19-20</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -3472,7 +6356,7 @@
               <c:f>'1A 1B 2019'!$B$93:$I$93</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-65A5-496A-9D3C-DE253863A771}"/>
             </c:ext>
@@ -3494,69 +6378,14 @@
           <c:cat>
             <c:strRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>4-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6-8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9-10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11-12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13-14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15-16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17-18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19-20</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$94:$I$94</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.896103896103896E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.41558441558441561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12987012987012986</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-65A5-496A-9D3C-DE253863A771}"/>
             </c:ext>
@@ -3572,11 +6401,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2050488528"/>
-        <c:axId val="2050476880"/>
+        <c:axId val="224993048"/>
+        <c:axId val="224993440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2050488528"/>
+        <c:axId val="224993048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +6448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050476880"/>
+        <c:crossAx val="224993440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3627,7 +6456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2050476880"/>
+        <c:axId val="224993440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3678,7 +6507,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2050488528"/>
+        <c:crossAx val="224993048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7457,31 +10286,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE96"/>
+  <dimension ref="A1:AH96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93:XFD93"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH85" sqref="AH85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="17" max="22" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="48.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="22" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="48.28515625" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="14.28515625" style="24" customWidth="1"/>
     <col min="25" max="25" width="10.85546875" style="24" customWidth="1"/>
     <col min="26" max="26" width="9.85546875" style="24" customWidth="1"/>
@@ -7581,7 +10410,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7673,8 +10502,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10">
@@ -7767,7 +10596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7858,7 +10687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7950,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8046,7 +10875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8138,7 +10967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -8230,7 +11059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -8322,7 +11151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -8412,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -8508,7 +11337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8602,7 +11431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -8694,8 +11523,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7">
@@ -8779,7 +11608,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -8870,7 +11699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8934,7 +11763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9026,7 +11855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -9118,7 +11947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9210,7 +12039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -9297,8 +12126,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="50" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7">
@@ -9389,7 +12218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -9480,7 +12309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -9570,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9662,7 +12491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9754,7 +12583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9848,7 +12677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -9937,8 +12766,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="7">
@@ -10029,7 +12858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -10121,7 +12950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -10217,7 +13046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -10313,7 +13142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -10411,7 +13240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -10503,7 +13332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -10597,7 +13426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -10689,7 +13518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -10778,7 +13607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -10874,7 +13703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -10966,7 +13795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -11058,7 +13887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -11150,7 +13979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -11240,7 +14069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -11330,7 +14159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -11422,7 +14251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -11513,7 +14342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -11603,8 +14432,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="50" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="7">
@@ -11695,8 +14524,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="7">
@@ -11787,7 +14616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -11879,7 +14708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -11968,7 +14797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -12057,7 +14886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
         <v>49</v>
       </c>
@@ -12155,7 +14984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -12249,7 +15078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -12290,7 +15119,7 @@
       <c r="AC53" s="29"/>
       <c r="AD53" s="29"/>
     </row>
-    <row r="54" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -12382,7 +15211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -12478,7 +15307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -12570,7 +15399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -12664,7 +15493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -12721,7 +15550,7 @@
       <c r="AC58" s="29"/>
       <c r="AD58" s="29"/>
     </row>
-    <row r="59" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -12817,7 +15646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -12880,7 +15709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -12972,7 +15801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -13064,7 +15893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -13133,7 +15962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -13225,7 +16054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -13319,7 +16148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>64</v>
       </c>
@@ -13411,7 +16240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -13502,7 +16331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -13594,7 +16423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -13686,7 +16515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -13776,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -13870,7 +16699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -13936,7 +16765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -14028,7 +16857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -14120,7 +16949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>73</v>
       </c>
@@ -14186,7 +17015,7 @@
       <c r="AC75" s="29"/>
       <c r="AD75" s="29"/>
     </row>
-    <row r="76" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -14282,7 +17111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -14373,7 +17202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -14465,7 +17294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -14558,7 +17387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -14650,7 +17479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -14742,7 +17571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -14831,7 +17660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -14920,7 +17749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -15038,7 +17867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -15079,8 +17908,11 @@
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
       <c r="W85" s="7"/>
+      <c r="AH85" t="s">
+        <v>251</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <f>MIN(B1:B83)</f>
         <v>7.29</v>
@@ -15102,77 +17934,77 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="87" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>248</v>
       </c>
-      <c r="B87" s="47">
+      <c r="B87" s="38">
         <f>MEDIAN(B2:B84)</f>
         <v>13.495000000000001</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="38">
         <f t="shared" ref="C87:F87" si="39">MEDIAN(C2:C84)</f>
         <v>10.895</v>
       </c>
-      <c r="D87" s="47">
+      <c r="D87" s="38">
         <f t="shared" si="39"/>
         <v>12.3</v>
       </c>
-      <c r="E87" s="47">
+      <c r="E87" s="38">
         <f t="shared" si="39"/>
         <v>10.719999999999999</v>
       </c>
-      <c r="F87" s="47">
+      <c r="F87" s="38">
         <f t="shared" si="39"/>
         <v>11.805</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>250</v>
       </c>
-      <c r="B88" s="47">
+      <c r="B88" s="38">
         <f>MAX(B2:B84)</f>
         <v>19.63</v>
       </c>
-      <c r="C88" s="47">
+      <c r="C88" s="38">
         <f t="shared" ref="C88:F88" si="40">MAX(C2:C84)</f>
         <v>16.52</v>
       </c>
-      <c r="D88" s="47">
+      <c r="D88" s="38">
         <f t="shared" si="40"/>
         <v>16.649999999999999</v>
       </c>
-      <c r="E88" s="47">
+      <c r="E88" s="38">
         <f t="shared" si="40"/>
         <v>14.77</v>
       </c>
-      <c r="F88" s="47">
+      <c r="F88" s="38">
         <f t="shared" si="40"/>
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>247</v>
       </c>
-      <c r="B89" s="47">
+      <c r="B89" s="38">
         <f>MIN(B2:B84)</f>
         <v>7.29</v>
       </c>
-      <c r="C89" s="47">
+      <c r="C89" s="38">
         <f t="shared" ref="C89:F89" si="41">MIN(C2:C84)</f>
         <v>5.33</v>
       </c>
-      <c r="D89" s="47">
+      <c r="D89" s="38">
         <f t="shared" si="41"/>
         <v>7.49</v>
       </c>
-      <c r="E89" s="47">
+      <c r="E89" s="38">
         <f t="shared" si="41"/>
         <v>6.18</v>
       </c>
-      <c r="F89" s="47">
+      <c r="F89" s="38">
         <f t="shared" si="41"/>
         <v>6.26</v>
       </c>
@@ -15201,37 +18033,37 @@
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="W90" s="35"/>
     </row>
-    <row r="91" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="B91" s="8"/>
       <c r="W91" s="35"/>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B92" s="48" t="s">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B92" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E92" s="48" t="s">
+      <c r="E92" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="F92" s="48" t="s">
+      <c r="F92" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="G92" s="48" t="s">
+      <c r="G92" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="H92" s="48" t="s">
+      <c r="H92" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="I92" s="48" t="s">
+      <c r="I92" s="39" t="s">
         <v>160</v>
       </c>
       <c r="W92" s="35" t="s">
@@ -15263,7 +18095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:31" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2019</v>
       </c>
@@ -15304,44 +18136,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2019</v>
       </c>
-      <c r="B94" s="49">
+      <c r="B94" s="40">
         <f>B93/$J93</f>
         <v>0</v>
       </c>
-      <c r="C94" s="49">
+      <c r="C94" s="40">
         <f t="shared" ref="C94:I94" si="45">C93/$J93</f>
         <v>3.896103896103896E-2</v>
       </c>
-      <c r="D94" s="49">
+      <c r="D94" s="40">
         <f t="shared" si="45"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="E94" s="49">
+      <c r="E94" s="40">
         <f t="shared" si="45"/>
         <v>0.41558441558441561</v>
       </c>
-      <c r="F94" s="49">
+      <c r="F94" s="40">
         <f t="shared" si="45"/>
         <v>0.27272727272727271</v>
       </c>
-      <c r="G94" s="49">
+      <c r="G94" s="40">
         <f t="shared" si="45"/>
         <v>0.12987012987012986</v>
       </c>
-      <c r="H94" s="49">
+      <c r="H94" s="40">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="I94" s="49">
+      <c r="I94" s="40">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -15372,7 +18204,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="X96" s="37">
         <v>1</v>
       </c>
@@ -15449,33 +18281,33 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="46"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">

--- a/new Writing Analysis.xlsx
+++ b/new Writing Analysis.xlsx
@@ -10,12 +10,12 @@
     <sheet name="1A 1B 2019" sheetId="1" r:id="rId1"/>
     <sheet name="1A 1B 2018" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="257">
   <si>
     <t>Binu Abeysinghe</t>
   </si>
@@ -771,12 +771,27 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Average Sentence Length:</t>
+  </si>
+  <si>
+    <t>Median Sentence Length:</t>
+  </si>
+  <si>
+    <t>Std. Dev</t>
+  </si>
+  <si>
+    <t>Average Word Length</t>
+  </si>
+  <si>
+    <t>Passive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1105,6 +1120,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1132,7 +1148,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1159,7 +1174,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1198,7 +1213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1249,16 +1263,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$93:$I$93</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F021-4936-98AE-94D96A971841}"/>
             </c:ext>
@@ -1278,16 +1292,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$94:$I$94</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F021-4936-98AE-94D96A971841}"/>
             </c:ext>
@@ -1459,7 +1473,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1518,7 +1532,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1540,7 +1554,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1561,7 +1575,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1580,7 +1594,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1599,7 +1613,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-BADF-40B9-AB71-1B48CCAD7AE6}"/>
               </c:ext>
@@ -1664,7 +1678,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-BADF-40B9-AB71-1B48CCAD7AE6}"/>
             </c:ext>
@@ -1941,7 +1955,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2083,7 +2097,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56F8-4896-9CAF-9B4B5E7B7631}"/>
             </c:ext>
@@ -2255,7 +2269,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2617,7 +2631,7 @@
               <c:f>'1A 1B 2019'!$B$2:$B$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -2909,7 +2923,7 @@
               <c:f>'1A 1B 2019'!$C$2:$C$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -3201,7 +3215,7 @@
               <c:f>'1A 1B 2019'!$D$2:$D$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -3493,7 +3507,7 @@
               <c:f>'1A 1B 2019'!$E$2:$E$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -3785,7 +3799,7 @@
               <c:f>'1A 1B 2019'!$F$2:$F$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -4077,7 +4091,7 @@
               <c:f>'1A 1B 2019'!$G$2:$G$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -4371,7 +4385,7 @@
               <c:f>'1A 1B 2019'!$H$2:$H$84</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-A8A2-4FAA-B0EF-D7D401550877}"/>
             </c:ext>
@@ -4575,7 +4589,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4893,7 +4907,7 @@
               <c:f>'1A 1B 2019'!$B$2:$B$89</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -5197,7 +5211,7 @@
               <c:f>'1A 1B 2019'!$C$2:$C$89</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -5501,7 +5515,7 @@
               <c:f>'1A 1B 2019'!$D$2:$D$89</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -5805,7 +5819,7 @@
               <c:f>'1A 1B 2019'!$E$2:$E$89</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -6109,7 +6123,7 @@
               <c:f>'1A 1B 2019'!$F$2:$F$89</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7169-465F-B3CF-31264AA78E16}"/>
             </c:ext>
@@ -6245,7 +6259,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6313,7 +6326,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -6347,16 +6360,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$93:$I$93</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-65A5-496A-9D3C-DE253863A771}"/>
             </c:ext>
@@ -6376,16 +6389,16 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'1A 1B 2019'!$B$92:$I$92</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'1A 1B 2019'!$B$94:$I$94</c:f>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-65A5-496A-9D3C-DE253863A771}"/>
             </c:ext>
@@ -9854,7 +9867,7 @@
       <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>183778</xdr:rowOff>
@@ -10286,11 +10299,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH96"/>
+  <dimension ref="A1:AM96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH85" sqref="AH85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,9 +10331,12 @@
     <col min="29" max="29" width="11.28515625" style="24" customWidth="1"/>
     <col min="30" max="30" width="9.140625" style="24"/>
     <col min="31" max="31" width="9.140625" style="6"/>
+    <col min="35" max="37" width="24.140625" style="24" customWidth="1"/>
+    <col min="38" max="38" width="13.7109375" customWidth="1"/>
+    <col min="39" max="39" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>245</v>
       </c>
@@ -10409,8 +10425,23 @@
       <c r="AD1" s="28" t="s">
         <v>179</v>
       </c>
+      <c r="AI1" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>254</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10501,9 +10532,24 @@
       <c r="AE2" s="6">
         <v>2</v>
       </c>
+      <c r="AI2" s="24">
+        <v>17.86</v>
+      </c>
+      <c r="AJ2" s="24">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AK2" s="24">
+        <v>14.27</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="6">
+        <v>5.52</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="10">
@@ -10595,8 +10641,17 @@
       <c r="AE3" s="6">
         <v>3</v>
       </c>
+      <c r="AI3" s="24">
+        <v>23.13</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>4.62</v>
+      </c>
+      <c r="AK3" s="24">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10686,8 +10741,17 @@
       <c r="AE4" s="6">
         <v>3</v>
       </c>
+      <c r="AI4" s="24">
+        <v>21.83</v>
+      </c>
+      <c r="AJ4" s="24">
+        <v>4.87</v>
+      </c>
+      <c r="AK4" s="24">
+        <v>16.670000000000002</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10778,8 +10842,17 @@
       <c r="AE5" s="6">
         <v>2</v>
       </c>
+      <c r="AI5" s="24">
+        <v>20.5</v>
+      </c>
+      <c r="AJ5" s="24">
+        <v>4.13</v>
+      </c>
+      <c r="AK5" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10874,8 +10947,17 @@
       <c r="AE6" s="33">
         <v>4</v>
       </c>
+      <c r="AI6" s="24">
+        <v>21.91</v>
+      </c>
+      <c r="AJ6" s="24">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="AK6" s="24">
+        <v>9.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10967,7 +11049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -11059,7 +11141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -11151,7 +11233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -11241,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
@@ -11337,7 +11419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -11431,7 +11513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -11523,8 +11605,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="7">
@@ -11608,7 +11690,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -11699,7 +11781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -12127,7 +12209,7 @@
       </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7">
@@ -12767,7 +12849,7 @@
       </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="7">
@@ -14433,7 +14515,7 @@
       </c>
     </row>
     <row r="46" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="41" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="7">
@@ -14525,7 +14607,7 @@
       </c>
     </row>
     <row r="47" spans="1:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
+      <c r="A47" s="41" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="7">
@@ -18281,33 +18363,33 @@
       </c>
     </row>
     <row r="2" spans="1:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47" t="s">
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">

--- a/new Writing Analysis.xlsx
+++ b/new Writing Analysis.xlsx
@@ -10303,7 +10303,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK11" sqref="AK11"/>
+      <selection pane="bottomLeft" activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
